--- a/Documentation/Sprint Backlog 4.xlsx
+++ b/Documentation/Sprint Backlog 4.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>NOT STARTED</t>
   </si>
@@ -59,47 +59,44 @@
     <t>Fri</t>
   </si>
   <si>
-    <t>Spring 1: Total Hours remaining</t>
-  </si>
-  <si>
     <t>SPRINT BACKLOG</t>
-  </si>
-  <si>
-    <t>Create input method</t>
-  </si>
-  <si>
-    <t>Discuss input methods with students</t>
-  </si>
-  <si>
-    <t>Sprint 1: Ideal hours remaining:</t>
   </si>
   <si>
     <t>Acceptance testing</t>
   </si>
   <si>
-    <t>Write and run unit tests</t>
+    <t>1.2 - As a lecturer I want to be able to view the feedback(s) for individual classes</t>
   </si>
   <si>
-    <t>[23/02/2015] - [06/03/2015]</t>
+    <t>Discuss display methods and interface with lecturer(s)</t>
   </si>
   <si>
-    <t>Sprint 3 - TASK DESCRIPTION</t>
+    <t>Create basic website skeleton</t>
   </si>
   <si>
-    <t>1.4 - As a student I want to be able to give feedback on how intelligible the class was (and why)</t>
+    <t>Create 'My Feebacks' page</t>
   </si>
   <si>
-    <t>1.5 - As a student I want to be able to give feedback on how innovative the class was (and why)</t>
+    <t>Create feedback display page</t>
   </si>
   <si>
-    <t>1.2 - As a student I want to be able to give feedback on how interactive the class was (and why)</t>
+    <t>[23/03/2015] - [03/04/2015]</t>
+  </si>
+  <si>
+    <t>Sprint 4 - TASK DESCRIPTION</t>
+  </si>
+  <si>
+    <t>Sprint 4: Ideal hours remaining:</t>
+  </si>
+  <si>
+    <t>Spring 4: Total Hours remaining</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,13 +149,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -168,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,12 +175,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFCC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor rgb="FF63FF04"/>
       </patternFill>
     </fill>
     <fill>
@@ -398,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -434,35 +418,32 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -619,11 +600,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$28</c:f>
+              <c:f>Sheet1!$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sprint 1: Ideal hours remaining:</c:v>
+                  <c:v>Sprint 4: Ideal hours remaining:</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -654,33 +635,33 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$28:$M$28</c:f>
+              <c:f>Sheet1!$D$17:$M$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>16</c:v>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
@@ -698,11 +679,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$29</c:f>
+              <c:f>Sheet1!$C$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Spring 1: Total Hours remaining</c:v>
+                  <c:v>Spring 4: Total Hours remaining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -733,36 +714,36 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$29:$M$29</c:f>
+              <c:f>Sheet1!$D$18:$M$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -782,11 +763,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1018935200"/>
-        <c:axId val="1018937920"/>
+        <c:axId val="-1735887472"/>
+        <c:axId val="-1735873872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1018935200"/>
+        <c:axId val="-1735887472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,7 +809,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1018937920"/>
+        <c:crossAx val="-1735873872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -836,7 +817,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1018937920"/>
+        <c:axId val="-1735873872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -887,7 +868,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1018935200"/>
+        <c:crossAx val="-1735887472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1517,13 +1498,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>5442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>21770</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1809,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1823,21 +1804,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="18"/>
+      <c r="A1" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="36.6" x14ac:dyDescent="0.7">
       <c r="A2" s="1"/>
@@ -1884,7 +1865,7 @@
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
@@ -1913,21 +1894,21 @@
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="18"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13" ht="36" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
@@ -1987,7 +1968,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2002,14 +1983,14 @@
       <c r="L10" s="8"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="8">
         <v>1</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="19"/>
       <c r="D11" s="8">
         <v>1</v>
       </c>
@@ -2037,27 +2018,27 @@
       <c r="L11" s="8">
         <v>0</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" s="8">
+        <v>8</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="8">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8">
+        <v>6</v>
+      </c>
+      <c r="F12" s="8">
         <v>2</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="8">
-        <v>2</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
       <c r="G12" s="8">
         <v>0</v>
       </c>
@@ -2076,107 +2057,129 @@
       <c r="L12" s="8">
         <v>0</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="8">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3</v>
+      </c>
+      <c r="F13" s="8">
+        <v>3</v>
+      </c>
+      <c r="G13" s="8">
+        <v>2</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="8">
-        <v>2</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="8">
-        <v>2</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>15</v>
-      </c>
       <c r="B14" s="8">
+        <v>8</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="8">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8">
+        <v>8</v>
+      </c>
+      <c r="G14" s="8">
+        <v>8</v>
+      </c>
+      <c r="H14" s="8">
+        <v>8</v>
+      </c>
+      <c r="I14" s="8">
+        <v>6</v>
+      </c>
+      <c r="J14" s="8">
+        <v>4</v>
+      </c>
+      <c r="K14" s="8">
+        <v>3</v>
+      </c>
+      <c r="L14" s="8">
         <v>1</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8">
-        <v>1</v>
-      </c>
-      <c r="J14" s="8">
-        <v>1</v>
-      </c>
-      <c r="K14" s="8">
-        <v>1</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="10">
+      <c r="M14" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="10"/>
+      <c r="A15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1</v>
+      </c>
+      <c r="L15" s="8">
+        <v>1</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="A16" s="11"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2191,445 +2194,86 @@
       <c r="M16" s="10"/>
     </row>
     <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="8">
-        <v>1</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="8">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0</v>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="20">
+        <v>21</v>
+      </c>
+      <c r="E17" s="20">
+        <v>18</v>
+      </c>
+      <c r="F17" s="20">
+        <v>15</v>
+      </c>
+      <c r="G17" s="20">
+        <v>12</v>
+      </c>
+      <c r="H17" s="20">
+        <v>10</v>
+      </c>
+      <c r="I17" s="20">
+        <v>8</v>
+      </c>
+      <c r="J17" s="20">
+        <v>6</v>
+      </c>
+      <c r="K17" s="20">
+        <v>4</v>
+      </c>
+      <c r="L17" s="20">
+        <v>2</v>
       </c>
       <c r="M17" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="8">
+    <row r="18" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="12">
+        <f>SUM(D11:D16)</f>
+        <v>21</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" ref="E18:M18" si="0">SUM(E11:E16)</f>
+        <v>18</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I18" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J18" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K18" s="12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="8">
-        <v>2</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="8">
-        <v>2</v>
-      </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="8">
-        <v>2</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8">
-        <v>0</v>
-      </c>
-      <c r="M19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="8">
-        <v>1</v>
-      </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="8">
-        <v>1</v>
-      </c>
-      <c r="E20" s="8">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8">
-        <v>1</v>
-      </c>
-      <c r="G20" s="8">
-        <v>1</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8">
-        <v>1</v>
-      </c>
-      <c r="J20" s="8">
-        <v>1</v>
-      </c>
-      <c r="K20" s="8">
-        <v>1</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-      <c r="M20" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="8">
-        <v>1</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="8">
-        <v>1</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-      <c r="M23" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="8">
-        <v>2</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="8">
-        <v>2</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
-        <v>0</v>
-      </c>
-      <c r="L24" s="8">
-        <v>0</v>
-      </c>
-      <c r="M24" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="8">
-        <v>2</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="8">
-        <v>2</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8">
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0</v>
-      </c>
-      <c r="K25" s="8">
-        <v>0</v>
-      </c>
-      <c r="L25" s="8">
-        <v>0</v>
-      </c>
-      <c r="M25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="8">
-        <v>1</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="8">
-        <v>1</v>
-      </c>
-      <c r="E26" s="8">
-        <v>1</v>
-      </c>
-      <c r="F26" s="8">
-        <v>1</v>
-      </c>
-      <c r="G26" s="8">
-        <v>1</v>
-      </c>
-      <c r="H26" s="8">
-        <v>1</v>
-      </c>
-      <c r="I26" s="8">
-        <v>1</v>
-      </c>
-      <c r="J26" s="8">
-        <v>1</v>
-      </c>
-      <c r="K26" s="8">
-        <v>1</v>
-      </c>
-      <c r="L26" s="8">
-        <v>0</v>
-      </c>
-      <c r="M26" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="21">
-        <v>18</v>
-      </c>
-      <c r="E28" s="21">
-        <v>16</v>
-      </c>
-      <c r="F28" s="21">
-        <v>12</v>
-      </c>
-      <c r="G28" s="21">
-        <v>8</v>
-      </c>
-      <c r="H28" s="21">
-        <v>7</v>
-      </c>
-      <c r="I28" s="21">
-        <v>6</v>
-      </c>
-      <c r="J28" s="21">
-        <v>5</v>
-      </c>
-      <c r="K28" s="21">
-        <v>3</v>
-      </c>
-      <c r="L28" s="21">
-        <v>2</v>
-      </c>
-      <c r="M28" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="12">
-        <f>SUM(D11:D26)</f>
-        <v>18</v>
-      </c>
-      <c r="E29" s="12">
-        <f>SUM(E11:E26)</f>
-        <v>3</v>
-      </c>
-      <c r="F29" s="12">
-        <f>SUM(F11:F26)</f>
-        <v>3</v>
-      </c>
-      <c r="G29" s="12">
-        <f>SUM(G11:G26)</f>
-        <v>3</v>
-      </c>
-      <c r="H29" s="12">
-        <f>SUM(H11:H26)</f>
-        <v>3</v>
-      </c>
-      <c r="I29" s="12">
-        <f>SUM(I11:I26)</f>
-        <v>3</v>
-      </c>
-      <c r="J29" s="12">
-        <f>SUM(J11:J26)</f>
-        <v>3</v>
-      </c>
-      <c r="K29" s="12">
-        <f>SUM(K11:K26)</f>
-        <v>3</v>
-      </c>
-      <c r="L29" s="12">
-        <f>SUM(L11:L26)</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="12">
-        <f>SUM(M11:M26)</f>
+      <c r="M18" s="12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
